--- a/_docs/all_accuracy_time_comp.xlsx
+++ b/_docs/all_accuracy_time_comp.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adaniltd-my.sharepoint.com/personal/30078206_adani_com/Documents/Desktop/LEARNING_FOLDER/_Kolkata_2024/1_LLM/3_Text_query_bot/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{AE15D0E6-8CE9-4325-8A9F-575F6C8CF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DD382F1-72A4-4D64-BE99-88992D274017}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="8_{AE15D0E6-8CE9-4325-8A9F-575F6C8CF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1EFBEF-3CE0-46AE-A17A-9F214A3F2247}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC18A773-BC05-4419-8F61-9B9926016DAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BC18A773-BC05-4419-8F61-9B9926016DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="time_compelxity_comp" sheetId="1" r:id="rId1"/>
+    <sheet name="Doc_loading" sheetId="3" r:id="rId2"/>
+    <sheet name="Response_time" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
   <si>
     <t>LLM</t>
   </si>
@@ -123,6 +126,111 @@
   </si>
   <si>
     <t>rougeLsum-recall</t>
+  </si>
+  <si>
+    <t>Reference Model</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Mistral-snow</t>
+  </si>
+  <si>
+    <t>Mistral-bge</t>
+  </si>
+  <si>
+    <t>Mistral-gte</t>
+  </si>
+  <si>
+    <t>llama-2-q4-snow</t>
+  </si>
+  <si>
+    <t>llama-2-q4-bge</t>
+  </si>
+  <si>
+    <t>llama-2-q4-gte</t>
+  </si>
+  <si>
+    <t>llama-2-q6-snow</t>
+  </si>
+  <si>
+    <t>llama-2-q6-bge</t>
+  </si>
+  <si>
+    <t>llama-2-q6-gte</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-snow</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-bge</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-gte</t>
+  </si>
+  <si>
+    <t>Average LLM init time</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>LLM init</t>
+  </si>
+  <si>
+    <t>Embed LLM init</t>
+  </si>
+  <si>
+    <t>Vector store creation</t>
+  </si>
+  <si>
+    <t>llama-2-7b-q4</t>
+  </si>
+  <si>
+    <t>llama-2-7b-q6</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
+    <t>Mistral</t>
+  </si>
+  <si>
+    <t>llama-2-q4</t>
+  </si>
+  <si>
+    <t>llama-2-q6</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -145,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +263,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,17 +316,164 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="13">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -256,13 +535,2447 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Doc_loading!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM init time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Doc_loading!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo-snow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-3.5-turbo-bge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-3.5-turbo-gte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral-snow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral-bge</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral-gte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llama-2-q4-snow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>llama-2-q4-bge</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama-2-q4-gte</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>llama-2-q6-snow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>llama-2-q6-bge</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>llama-2-q6-gte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Doc_loading!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.54917359352111816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53068137168884277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53645420074462891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.40697193145752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5897970199584961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.512317419052124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0623118877410889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9674563407897949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2437705993652339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.727718830108639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8833925724029541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7415986061096191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CADE-4226-8213-F9936B854A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Doc_loading!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Embed LLM init time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Doc_loading!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo-snow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-3.5-turbo-bge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-3.5-turbo-gte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral-snow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral-bge</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral-gte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llama-2-q4-snow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>llama-2-q4-bge</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama-2-q4-gte</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>llama-2-q6-snow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>llama-2-q6-bge</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>llama-2-q6-gte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Doc_loading!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.7709705829620361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86316728591918945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7271111011505131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.14731812477112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81784772872924805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.317121028900146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9103553295135498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81729841232299805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.331371545791626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9037516117095947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0706660747528081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8902096748352051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CADE-4226-8213-F9936B854A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Doc_loading!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vector store creation time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Doc_loading!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo-snow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-3.5-turbo-bge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-3.5-turbo-gte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral-snow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral-bge</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral-gte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llama-2-q4-snow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>llama-2-q4-bge</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama-2-q4-gte</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>llama-2-q6-snow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>llama-2-q6-bge</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>llama-2-q6-gte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Doc_loading!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.439124584197998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.437832355499268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0821999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.857549667358398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.046851634979248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.254677295684814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2583692073822021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.963096618652344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.08773398399353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5121240615844731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.125999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CADE-4226-8213-F9936B854A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="36962591"/>
+        <c:axId val="36957791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="36962591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36957791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36957791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36962591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Response_time!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM response time(min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Response_time!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo-snow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-3.5-turbo-bge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-3.5-turbo-gte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral-snow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral-bge</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral-gte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llama-2-q4-snow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>llama-2-q4-bge</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama-2-q4-gte</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>llama-2-q6-snow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>llama-2-q6-bge</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>llama-2-q6-gte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Response_time!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.64883232116699219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80840015411376953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7084803581237793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.935962438583374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.975373268127441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.427341461181641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3902938365936279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.18139910697937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.65658378601074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.4017333984375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178.32608532905579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.560878038406372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC34-456B-9083-B66D97A08FEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Response_time!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM response time(max)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Response_time!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo-snow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-3.5-turbo-bge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-3.5-turbo-gte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral-snow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral-bge</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral-gte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llama-2-q4-snow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>llama-2-q4-bge</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama-2-q4-gte</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>llama-2-q6-snow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>llama-2-q6-bge</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>llama-2-q6-gte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Response_time!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.8207399845123291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.877762079238892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4756400585174561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608.81092023849499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.5726847648621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1216.9153182506559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.3341472148895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>690.03253126144409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172.88219714164731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344.90484237670898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>452.15553140640259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>358.84916114807129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC34-456B-9083-B66D97A08FEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Response_time!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLM response time(avg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Response_time!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo-snow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-3.5-turbo-bge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-3.5-turbo-gte</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral-snow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral-bge</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral-gte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>llama-2-q4-snow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>llama-2-q4-bge</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>llama-2-q4-gte</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>llama-2-q6-snow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>llama-2-q6-bge</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>llama-2-q6-gte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Response_time!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1827422738075259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3788105010986329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.476845920085907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.627002429962161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.047217261791232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184.3784502744675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.191985630989095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.21392229795461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.169187271595007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128.43259263038641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260.73148077726358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>212.7192493200302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC34-456B-9083-B66D97A08FEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153702335"/>
+        <c:axId val="153702815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153702335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153702815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153702815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153702335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360066</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1473758</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8373</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DBE6F3-39F5-9DB1-8ED3-97BDD360896A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>521804</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94F3488-6578-6041-9833-DCEB143E01B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{352D5A54-B83E-4F55-84CC-3C9BA55ADBC2}" name="Table1" displayName="Table1" ref="A1:T13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:T13" xr:uid="{352D5A54-B83E-4F55-84CC-3C9BA55ADBC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{352D5A54-B83E-4F55-84CC-3C9BA55ADBC2}" name="Table1" displayName="Table1" ref="B1:U16" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B1:U16" xr:uid="{352D5A54-B83E-4F55-84CC-3C9BA55ADBC2}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{7A5CBEA3-4502-491B-B2B6-7D9149F8E1E3}" name="LLM"/>
     <tableColumn id="2" xr3:uid="{1BD4528C-C808-4E4D-8AFE-CA120998C864}" name="Embed LLM"/>
@@ -284,6 +2997,90 @@
     <tableColumn id="17" xr3:uid="{2649F11F-81BC-42C0-9D25-2EC08B1CFA0F}" name="rouge2-recall"/>
     <tableColumn id="19" xr3:uid="{A483201D-0226-4949-BAC4-62ECE1996FF2}" name="rougeL-recall"/>
     <tableColumn id="20" xr3:uid="{AE6D28F9-8087-46D9-AACB-91EAE67ACF2B}" name="rougeLsum-recall"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10426A16-2CC0-42A5-8480-F5678CAD48F6}" name="Table3" displayName="Table3" ref="A15:C19" totalsRowShown="0">
+  <autoFilter ref="A15:C19" xr:uid="{10426A16-2CC0-42A5-8480-F5678CAD48F6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{552E3862-DA48-4F91-B0CC-15C02FA8DC4E}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{7C4586C1-A1A1-4FA5-8274-B3335E23A0EE}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{65EB39EC-6FC6-4826-98A2-264AB460900E}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8C96158-E2B9-44E8-B2C8-AF59F1B3BF0A}" name="Table136" displayName="Table136" ref="A1:D13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:D13" xr:uid="{F8C96158-E2B9-44E8-B2C8-AF59F1B3BF0A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B9D78D76-84DB-4AAC-8D03-95D3E371670A}" name="LLM"/>
+    <tableColumn id="3" xr3:uid="{235849CE-ABB3-497A-9910-DE39F393BB47}" name="LLM init time"/>
+    <tableColumn id="4" xr3:uid="{19E04B99-6DBC-4AB5-BA13-691AF1E50349}" name="Embed LLM init time"/>
+    <tableColumn id="7" xr3:uid="{2C0D35CC-7076-4BC7-AA87-B7AEC5403911}" name="Vector store creation time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D560D2B5-7995-44E0-986D-2F27D0AE905F}" name="Table13" displayName="Table13" ref="A1:D13" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:D13" xr:uid="{D560D2B5-7995-44E0-986D-2F27D0AE905F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{85F5BF00-FB64-4EB0-902F-6C38D916892F}" name="LLM"/>
+    <tableColumn id="8" xr3:uid="{41ABA2E1-49AE-48CF-B206-D96BD5B2404E}" name="LLM response time(min)"/>
+    <tableColumn id="9" xr3:uid="{FCC76B69-C890-4172-84CC-9C15AF5A0232}" name="LLM response time(max)"/>
+    <tableColumn id="10" xr3:uid="{136A60AA-E2DF-4AEF-911D-4A1CA9AB885A}" name="LLM response time(avg)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2F2F1F05-2180-45DC-95DE-6DA1C1BAB73B}" name="Table6" displayName="Table6" ref="A16:D20" totalsRowShown="0">
+  <autoFilter ref="A16:D20" xr:uid="{2F2F1F05-2180-45DC-95DE-6DA1C1BAB73B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BED61B4A-8D69-444C-B89F-07D75216F914}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{D7BDFFF1-FE86-4CE2-B6F0-BF0619402A23}" name="min">
+      <calculatedColumnFormula>AVERAGE(B4:B6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{40B383BE-6FC7-42FD-9214-F4EA85BAEC64}" name="max">
+      <calculatedColumnFormula>AVERAGE(C4:C6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7DCD1DFA-8BE1-41B6-9EBB-C87992FAA0E9}" name="average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E7702E12-E3A5-4185-996E-CB3F94091312}" name="Table135" displayName="Table135" ref="A1:R16" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:R16" xr:uid="{E7702E12-E3A5-4185-996E-CB3F94091312}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{759E0AB3-B198-4CEF-A062-8114C29F5959}" name="LLM"/>
+    <tableColumn id="2" xr3:uid="{E386686C-CBC9-4A39-9809-E33D5A14C022}" name="Average LLM init time" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(C1:C3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{97121EC3-7A05-4C3A-AC48-22CCD26BB00E}" name="LLM init time"/>
+    <tableColumn id="4" xr3:uid="{C56FFE13-72DE-4598-8FE2-CBAE2A2D2348}" name="Embed LLM init time"/>
+    <tableColumn id="7" xr3:uid="{4D0883F0-911A-4FED-A8D4-03D5D7182138}" name="Vector store creation time"/>
+    <tableColumn id="8" xr3:uid="{8D0200F7-463C-4B28-844C-6335911CFAFA}" name="LLM response time(min)"/>
+    <tableColumn id="9" xr3:uid="{A2D864B1-6745-4A0A-8867-2B2CCBCBF885}" name="LLM response time(max)"/>
+    <tableColumn id="10" xr3:uid="{D8E3C95E-369F-4575-8CA9-BEB81F4FBD9A}" name="LLM response time(avg)"/>
+    <tableColumn id="11" xr3:uid="{978AAB9E-1E53-46F7-9A16-4195493A50C3}" name="Temperature"/>
+    <tableColumn id="12" xr3:uid="{0B099090-512A-44A9-A778-7110736D51EE}" name="rouge1"/>
+    <tableColumn id="13" xr3:uid="{4F497FE7-7DDF-4233-BD3F-84FE731C79B0}" name="rouge2"/>
+    <tableColumn id="14" xr3:uid="{6CFAB36E-0C18-42C6-8250-D9D26DAFD396}" name="rougeL"/>
+    <tableColumn id="15" xr3:uid="{858085FA-09C1-43FF-9906-F06F0260EBFE}" name="rougeLsum"/>
+    <tableColumn id="18" xr3:uid="{116376CB-9970-4C68-B354-0288AC31378A}" name="Cosine similarity"/>
+    <tableColumn id="16" xr3:uid="{4005B774-21EF-4C6D-9BAF-289EB76B9EFD}" name="rouge1-recall"/>
+    <tableColumn id="17" xr3:uid="{D2C0B402-D967-48E9-AE71-E2AE73E04EA3}" name="rouge2-recall"/>
+    <tableColumn id="19" xr3:uid="{FAC1C1F2-333E-4036-AC05-B67157A72C1B}" name="rougeL-recall"/>
+    <tableColumn id="20" xr3:uid="{77517639-8651-4EE4-8BDD-2851277B0A6F}" name="rougeLsum-recall"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,126 +3403,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F1669A-5CA6-4422-83ED-069F752B832E}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="94" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="94" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.4140625" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="17.08203125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="14" max="15" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.9140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="23.4140625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="17.08203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="15" max="16" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.54917359352111816</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4.7709705829620361</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.439124584197998</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.64883232116699219</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.8207399845123291</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1.1827422738075259</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -751,43 +3549,44 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.53068137168884277</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.86316728591918945</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.437832355499268</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.80840015411376953</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.877762079238892</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1.3788105010986329</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -813,43 +3612,44 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.53645420074462891</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2.7271111011505131</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.0821999999999998</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.7084803581237793</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.4756400585174561</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1.476845920085907</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -875,567 +3675,597 @@
       <c r="T4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>14.40697193145752</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>12.14731812477112</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>16.857549667358398</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>4.935962438583374</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>608.81092023849499</v>
       </c>
-      <c r="J5">
+      <c r="K6">
         <v>79.627002429962161</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <v>0.8</v>
       </c>
-      <c r="L5">
+      <c r="M6">
         <v>0.551929642654446</v>
       </c>
-      <c r="M5">
+      <c r="N6">
         <v>0.37930571174624</v>
       </c>
-      <c r="N5">
+      <c r="O6">
         <v>0.46944025772407599</v>
       </c>
-      <c r="O5">
+      <c r="P6">
         <v>0.47380462861616701</v>
       </c>
-      <c r="P5">
+      <c r="Q6">
         <v>0.88522512774699702</v>
       </c>
-      <c r="Q5">
+      <c r="R6">
         <v>0.6567308983806095</v>
       </c>
-      <c r="R5">
+      <c r="S6">
         <v>0.45988791691153963</v>
       </c>
-      <c r="S5">
+      <c r="T6">
         <v>0.54333600622384304</v>
       </c>
-      <c r="T5">
+      <c r="U6">
         <v>0.54900700189483875</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>2.5897970199584961</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>0.81784772872924805</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>2.046851634979248</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>59.975373268127441</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>123.5726847648621</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>84.047217261791232</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>0.8</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>0.61434205964551103</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <v>0.475735711658751</v>
       </c>
-      <c r="N6">
+      <c r="O7">
         <v>0.55686776728710696</v>
       </c>
-      <c r="O6">
+      <c r="P7">
         <v>0.56089610945059998</v>
       </c>
-      <c r="P6">
+      <c r="Q7">
         <v>0.87445607903859024</v>
       </c>
-      <c r="Q6">
+      <c r="R7">
         <v>0.6242202220294325</v>
       </c>
-      <c r="R6">
+      <c r="S7">
         <v>0.39758240843031029</v>
       </c>
-      <c r="S6">
+      <c r="T7">
         <v>0.52970531716536207</v>
       </c>
-      <c r="T6">
+      <c r="U7">
         <v>0.52970531716536207</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>2.512317419052124</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>2.317121028900146</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>3.254677295684814</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>29.427341461181641</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>1216.9153182506559</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>184.3784502744675</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>0.8</v>
       </c>
-      <c r="L7">
+      <c r="M8">
         <v>0.53851010902491803</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <v>0.35459263430720001</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <v>0.44979693676853999</v>
       </c>
-      <c r="O7">
+      <c r="P8">
         <v>0.45135498260153001</v>
       </c>
-      <c r="P7">
+      <c r="Q8">
         <v>0.85172260126704435</v>
       </c>
-      <c r="Q7">
+      <c r="R8">
         <v>0.53593384717550319</v>
       </c>
-      <c r="R7">
+      <c r="S8">
         <v>0.29383740866758185</v>
       </c>
-      <c r="S7">
+      <c r="T8">
         <v>0.43784433746612822</v>
       </c>
-      <c r="T7">
+      <c r="U8">
         <v>0.43471933746612823</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="D10">
         <v>9.0623118877410889</v>
       </c>
-      <c r="D8">
+      <c r="E10">
         <v>0.9103553295135498</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="H10">
         <v>2.2583692073822021</v>
       </c>
-      <c r="H8">
+      <c r="I10">
         <v>7.3902938365936279</v>
       </c>
-      <c r="I8">
+      <c r="J10">
         <v>194.3341472148895</v>
       </c>
-      <c r="J8">
+      <c r="K10">
         <v>69.191985630989095</v>
       </c>
-      <c r="K8">
+      <c r="L10">
         <v>0.8</v>
       </c>
-      <c r="L8">
+      <c r="M10">
         <v>0.54164933435267204</v>
       </c>
-      <c r="M8">
+      <c r="N10">
         <v>0.382834659485425</v>
       </c>
-      <c r="N8">
+      <c r="O10">
         <v>0.456583368129028</v>
       </c>
-      <c r="O8">
+      <c r="P10">
         <v>0.45833871768774098</v>
       </c>
-      <c r="P8">
+      <c r="Q10">
         <v>0.89206033302287546</v>
       </c>
-      <c r="Q8">
+      <c r="R10">
         <v>0.70013244028471866</v>
       </c>
-      <c r="R8">
+      <c r="S10">
         <v>0.47846117596915966</v>
       </c>
-      <c r="S8">
+      <c r="T10">
         <v>0.60036854346979518</v>
       </c>
-      <c r="T8">
+      <c r="U10">
         <v>0.59870187680312847</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="D11">
         <v>3.9674563407897949</v>
       </c>
-      <c r="D9">
+      <c r="E11">
         <v>0.81729841232299805</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="H11">
         <v>1.963096618652344</v>
       </c>
-      <c r="H9">
+      <c r="I11">
         <v>48.18139910697937</v>
       </c>
-      <c r="I9">
+      <c r="J11">
         <v>690.03253126144409</v>
       </c>
-      <c r="J9">
+      <c r="K11">
         <v>135.21392229795461</v>
       </c>
-      <c r="K9">
+      <c r="L11">
         <v>0.8</v>
       </c>
-      <c r="L9">
+      <c r="M11">
         <v>0.56348745808580003</v>
       </c>
-      <c r="M9">
+      <c r="N11">
         <v>0.39892027189610901</v>
       </c>
-      <c r="N9">
+      <c r="O11">
         <v>0.48888946640922598</v>
       </c>
-      <c r="O9">
+      <c r="P11">
         <v>0.49211260067148199</v>
       </c>
-      <c r="P9">
+      <c r="Q11">
         <v>0.86192812467197777</v>
       </c>
-      <c r="Q9">
+      <c r="R11">
         <v>0.67197050332352004</v>
       </c>
-      <c r="R9">
+      <c r="S11">
         <v>0.46227424572272779</v>
       </c>
-      <c r="S9">
+      <c r="T11">
         <v>0.58469523111676525</v>
       </c>
-      <c r="T9">
+      <c r="U11">
         <v>0.58636189778343195</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="D12">
         <v>3.2437705993652339</v>
       </c>
-      <c r="D10">
+      <c r="E12">
         <v>2.331371545791626</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
+      <c r="H12">
         <v>2.5590000000000002</v>
       </c>
-      <c r="H10">
+      <c r="I12">
         <v>13.65658378601074</v>
       </c>
-      <c r="I10">
+      <c r="J12">
         <v>172.88219714164731</v>
       </c>
-      <c r="J10">
+      <c r="K12">
         <v>85.169187271595007</v>
       </c>
-      <c r="K10">
+      <c r="L12">
         <v>0.8</v>
       </c>
-      <c r="L10">
+      <c r="M12">
         <v>0.483958661003352</v>
       </c>
-      <c r="M10">
+      <c r="N12">
         <v>0.35560798577911101</v>
       </c>
-      <c r="N10">
+      <c r="O12">
         <v>0.41946709825775202</v>
       </c>
-      <c r="O10">
+      <c r="P12">
         <v>0.42193220395523301</v>
       </c>
-      <c r="P10">
+      <c r="Q12">
         <v>0.79183055005355263</v>
       </c>
-      <c r="Q10">
+      <c r="R12">
         <v>0.5705738164987203</v>
       </c>
-      <c r="R10">
+      <c r="S12">
         <v>0.37497716047130714</v>
       </c>
-      <c r="S10">
+      <c r="T12">
         <v>0.49291281644827861</v>
       </c>
-      <c r="T10">
+      <c r="U12">
         <v>0.49291281644827861</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="D14">
         <v>17.727718830108639</v>
       </c>
-      <c r="D11">
+      <c r="E14">
         <v>8.9037516117095947</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="G11">
+      <c r="H14">
         <v>12.08773398399353</v>
       </c>
-      <c r="H11">
+      <c r="I14">
         <v>11.4017333984375</v>
       </c>
-      <c r="I11">
+      <c r="J14">
         <v>344.90484237670898</v>
       </c>
-      <c r="J11">
+      <c r="K14">
         <v>128.43259263038641</v>
       </c>
-      <c r="K11">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="M14">
         <v>0.55602362408698203</v>
       </c>
-      <c r="M11">
+      <c r="N14">
         <v>0.41050720660534601</v>
       </c>
-      <c r="N11">
+      <c r="O14">
         <v>0.484542603468751</v>
       </c>
-      <c r="O11">
+      <c r="P14">
         <v>0.48284553520733497</v>
       </c>
-      <c r="P11">
+      <c r="Q14">
         <v>0.87391655813525926</v>
       </c>
-      <c r="Q11">
+      <c r="R14">
         <v>0.76331004391771407</v>
       </c>
-      <c r="R11">
+      <c r="S14">
         <v>0.55485100172527291</v>
       </c>
-      <c r="S11">
+      <c r="T14">
         <v>0.67773686695204671</v>
       </c>
-      <c r="T11">
+      <c r="U14">
         <v>0.67394898816416804</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="D15">
         <v>3.8833925724029541</v>
       </c>
-      <c r="D12">
+      <c r="E15">
         <v>1.0706660747528081</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="H15">
         <v>3.5121240615844731</v>
       </c>
-      <c r="H12">
+      <c r="I15">
         <v>178.32608532905579</v>
       </c>
-      <c r="I12">
+      <c r="J15">
         <v>452.15553140640259</v>
       </c>
-      <c r="J12">
+      <c r="K15">
         <v>260.73148077726358</v>
       </c>
-      <c r="K12">
+      <c r="L15">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="M15">
         <v>0.55107575065371905</v>
       </c>
-      <c r="M12">
+      <c r="N15">
         <v>0.38807080508195202</v>
       </c>
-      <c r="N12">
+      <c r="O15">
         <v>0.47143000000000002</v>
       </c>
-      <c r="O12">
+      <c r="P15">
         <v>0.474067574338287</v>
       </c>
-      <c r="P12">
+      <c r="Q15">
         <v>0.8807868889211361</v>
       </c>
-      <c r="Q12">
+      <c r="R15">
         <v>0.74285658192542026</v>
       </c>
-      <c r="R12">
+      <c r="S15">
         <v>0.4831881859070834</v>
       </c>
-      <c r="S12">
+      <c r="T15">
         <v>0.62960498319965574</v>
       </c>
-      <c r="T12">
+      <c r="U15">
         <v>0.63127164986632245</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="D16">
         <v>4.7415986061096191</v>
       </c>
-      <c r="D13">
+      <c r="E16">
         <v>2.8902096748352051</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="H16">
         <v>10.125999999999999</v>
       </c>
-      <c r="H13">
+      <c r="I16">
         <v>68.560878038406372</v>
       </c>
-      <c r="I13">
+      <c r="J16">
         <v>358.84916114807129</v>
       </c>
-      <c r="J13">
+      <c r="K16">
         <v>212.7192493200302</v>
       </c>
-      <c r="K13">
+      <c r="L16">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="M16">
         <v>0.49048369370274703</v>
       </c>
-      <c r="M13">
+      <c r="N16">
         <v>0.32816246312365699</v>
       </c>
-      <c r="N13">
+      <c r="O16">
         <v>0.41124687580125502</v>
       </c>
-      <c r="O13">
+      <c r="P16">
         <v>0.40937839484829303</v>
       </c>
-      <c r="P13">
+      <c r="Q16">
         <v>0.83294910482818074</v>
       </c>
-      <c r="Q13">
+      <c r="R16">
         <v>0.58592854519250548</v>
       </c>
-      <c r="R13">
+      <c r="S16">
         <v>0.38652706434623091</v>
       </c>
-      <c r="S13">
+      <c r="T16">
         <v>0.51510476821709161</v>
       </c>
-      <c r="T13">
+      <c r="U16">
         <v>0.51406310155042501</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D13">
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:E16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1447,7 +4277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G13">
+  <conditionalFormatting sqref="H1:H16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1459,7 +4289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J13">
+  <conditionalFormatting sqref="H2:K16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1471,7 +4301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H13">
+  <conditionalFormatting sqref="I1:I16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1483,7 +4313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1495,7 +4325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1507,7 +4337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L13">
+  <conditionalFormatting sqref="M2:M16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1519,7 +4349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M13">
+  <conditionalFormatting sqref="N2:N16">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1531,7 +4361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N13">
+  <conditionalFormatting sqref="O1:O16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1543,7 +4373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O13">
+  <conditionalFormatting sqref="P2:P16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1555,7 +4385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P13">
+  <conditionalFormatting sqref="Q2:Q16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1567,7 +4397,1577 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:T13">
+  <conditionalFormatting sqref="R2:U16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929BBD60-2763-43CE-9987-F5B71B585969}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView zoomScale="91" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0.54917359352111816</v>
+      </c>
+      <c r="C2">
+        <v>4.7709705829620361</v>
+      </c>
+      <c r="D2">
+        <v>9.439124584197998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>0.53068137168884277</v>
+      </c>
+      <c r="C3">
+        <v>0.86316728591918945</v>
+      </c>
+      <c r="D3">
+        <v>2.437832355499268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>0.53645420074462891</v>
+      </c>
+      <c r="C4">
+        <v>2.7271111011505131</v>
+      </c>
+      <c r="D4">
+        <v>3.0821999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>14.40697193145752</v>
+      </c>
+      <c r="C5">
+        <v>12.14731812477112</v>
+      </c>
+      <c r="D5">
+        <v>16.857549667358398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>2.5897970199584961</v>
+      </c>
+      <c r="C6">
+        <v>0.81784772872924805</v>
+      </c>
+      <c r="D6">
+        <v>2.046851634979248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>2.512317419052124</v>
+      </c>
+      <c r="C7">
+        <v>2.317121028900146</v>
+      </c>
+      <c r="D7">
+        <v>3.254677295684814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>9.0623118877410889</v>
+      </c>
+      <c r="C8">
+        <v>0.9103553295135498</v>
+      </c>
+      <c r="D8">
+        <v>2.2583692073822021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>3.9674563407897949</v>
+      </c>
+      <c r="C9">
+        <v>0.81729841232299805</v>
+      </c>
+      <c r="D9">
+        <v>1.963096618652344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>3.2437705993652339</v>
+      </c>
+      <c r="C10">
+        <v>2.331371545791626</v>
+      </c>
+      <c r="D10">
+        <v>2.5590000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>17.727718830108639</v>
+      </c>
+      <c r="C11">
+        <v>8.9037516117095947</v>
+      </c>
+      <c r="D11">
+        <v>12.08773398399353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>3.8833925724029541</v>
+      </c>
+      <c r="C12">
+        <v>1.0706660747528081</v>
+      </c>
+      <c r="D12">
+        <v>3.5121240615844731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>4.7415986061096191</v>
+      </c>
+      <c r="C13">
+        <v>2.8902096748352051</v>
+      </c>
+      <c r="D13">
+        <v>10.125999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C13">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D13">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E47FB3-CC4F-4A2B-BEB9-358778A68E15}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.4140625" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="11" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0.64883232116699219</v>
+      </c>
+      <c r="C2">
+        <v>2.8207399845123291</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1827422738075259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>0.80840015411376953</v>
+      </c>
+      <c r="C3">
+        <v>2.877762079238892</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3788105010986329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>0.7084803581237793</v>
+      </c>
+      <c r="C4">
+        <v>3.4756400585174561</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.476845920085907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>4.935962438583374</v>
+      </c>
+      <c r="C5">
+        <v>608.81092023849499</v>
+      </c>
+      <c r="D5">
+        <v>79.627002429962161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>59.975373268127441</v>
+      </c>
+      <c r="C6">
+        <v>123.5726847648621</v>
+      </c>
+      <c r="D6">
+        <v>84.047217261791232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>29.427341461181641</v>
+      </c>
+      <c r="C7">
+        <v>1216.9153182506559</v>
+      </c>
+      <c r="D7">
+        <v>184.3784502744675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>7.3902938365936279</v>
+      </c>
+      <c r="C8">
+        <v>194.3341472148895</v>
+      </c>
+      <c r="D8">
+        <v>69.191985630989095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>48.18139910697937</v>
+      </c>
+      <c r="C9">
+        <v>690.03253126144409</v>
+      </c>
+      <c r="D9">
+        <v>135.21392229795461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>13.65658378601074</v>
+      </c>
+      <c r="C10">
+        <v>172.88219714164731</v>
+      </c>
+      <c r="D10">
+        <v>85.169187271595007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>11.4017333984375</v>
+      </c>
+      <c r="C11">
+        <v>344.90484237670898</v>
+      </c>
+      <c r="D11">
+        <v>128.43259263038641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>178.32608532905579</v>
+      </c>
+      <c r="C12">
+        <v>452.15553140640259</v>
+      </c>
+      <c r="D12">
+        <v>260.73148077726358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>68.560878038406372</v>
+      </c>
+      <c r="C13">
+        <v>358.84916114807129</v>
+      </c>
+      <c r="D13">
+        <v>212.7192493200302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B2:B4)</f>
+        <v>0.72190427780151367</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C2:C4)</f>
+        <v>3.0580473740895591</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D2:D4)</f>
+        <v>1.3461328983306886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B5:B7)</f>
+        <v>31.446225722630818</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C5:C7)</f>
+        <v>649.76630775133765</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(D5:D7)</f>
+        <v>116.01755665540696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(B8:B10)</f>
+        <v>23.07609224319458</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(C8:C10)</f>
+        <v>352.41629187266034</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(D8:D10)</f>
+        <v>96.525031733512904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B11:B13)</f>
+        <v>86.096232255299881</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C11:C13)</f>
+        <v>385.30317831039429</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D11:D13)</f>
+        <v>200.62777424256009</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B13">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D13">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2E9B25-9DE5-4B7C-A1FF-40471F34EEB2}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="23.4140625" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="12" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B16" si="0">AVERAGE(C1:C3)</f>
+        <v>0.53992748260498047</v>
+      </c>
+      <c r="C2">
+        <v>0.54917359352111816</v>
+      </c>
+      <c r="D2">
+        <v>4.7709705829620361</v>
+      </c>
+      <c r="E2">
+        <v>9.439124584197998</v>
+      </c>
+      <c r="F2">
+        <v>0.64883232116699219</v>
+      </c>
+      <c r="G2">
+        <v>2.8207399845123291</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.1827422738075259</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.53876972198486328</v>
+      </c>
+      <c r="C3">
+        <v>0.53068137168884277</v>
+      </c>
+      <c r="D3">
+        <v>0.86316728591918945</v>
+      </c>
+      <c r="E3">
+        <v>2.437832355499268</v>
+      </c>
+      <c r="F3">
+        <v>0.80840015411376953</v>
+      </c>
+      <c r="G3">
+        <v>2.877762079238892</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.3788105010986329</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.53356778621673584</v>
+      </c>
+      <c r="C4">
+        <v>0.53645420074462891</v>
+      </c>
+      <c r="D4">
+        <v>2.7271111011505131</v>
+      </c>
+      <c r="E4">
+        <v>3.0821999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.7084803581237793</v>
+      </c>
+      <c r="G4">
+        <v>3.4756400585174561</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.476845920085907</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>6.5030287901560468</v>
+      </c>
+      <c r="C6">
+        <v>14.40697193145752</v>
+      </c>
+      <c r="D6">
+        <v>12.14731812477112</v>
+      </c>
+      <c r="E6">
+        <v>16.857549667358398</v>
+      </c>
+      <c r="F6">
+        <v>4.935962438583374</v>
+      </c>
+      <c r="G6">
+        <v>608.81092023849499</v>
+      </c>
+      <c r="H6">
+        <v>79.627002429962161</v>
+      </c>
+      <c r="I6">
+        <v>0.8</v>
+      </c>
+      <c r="J6">
+        <v>0.551929642654446</v>
+      </c>
+      <c r="K6">
+        <v>0.37930571174624</v>
+      </c>
+      <c r="L6">
+        <v>0.46944025772407599</v>
+      </c>
+      <c r="M6">
+        <v>0.47380462861616701</v>
+      </c>
+      <c r="N6">
+        <v>0.88522512774699702</v>
+      </c>
+      <c r="O6">
+        <v>0.6567308983806095</v>
+      </c>
+      <c r="P6">
+        <v>0.45988791691153963</v>
+      </c>
+      <c r="Q6">
+        <v>0.54333600622384304</v>
+      </c>
+      <c r="R6">
+        <v>0.54900700189483875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>6.5030287901560468</v>
+      </c>
+      <c r="C7">
+        <v>2.5897970199584961</v>
+      </c>
+      <c r="D7">
+        <v>0.81784772872924805</v>
+      </c>
+      <c r="E7">
+        <v>2.046851634979248</v>
+      </c>
+      <c r="F7">
+        <v>59.975373268127441</v>
+      </c>
+      <c r="G7">
+        <v>123.5726847648621</v>
+      </c>
+      <c r="H7">
+        <v>84.047217261791232</v>
+      </c>
+      <c r="I7">
+        <v>0.8</v>
+      </c>
+      <c r="J7">
+        <v>0.61434205964551103</v>
+      </c>
+      <c r="K7">
+        <v>0.475735711658751</v>
+      </c>
+      <c r="L7">
+        <v>0.55686776728710696</v>
+      </c>
+      <c r="M7">
+        <v>0.56089610945059998</v>
+      </c>
+      <c r="N7">
+        <v>0.87445607903859024</v>
+      </c>
+      <c r="O7">
+        <v>0.6242202220294325</v>
+      </c>
+      <c r="P7">
+        <v>0.39758240843031029</v>
+      </c>
+      <c r="Q7">
+        <v>0.52970531716536207</v>
+      </c>
+      <c r="R7">
+        <v>0.52970531716536207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>6.5030287901560468</v>
+      </c>
+      <c r="C8">
+        <v>2.512317419052124</v>
+      </c>
+      <c r="D8">
+        <v>2.317121028900146</v>
+      </c>
+      <c r="E8">
+        <v>3.254677295684814</v>
+      </c>
+      <c r="F8">
+        <v>29.427341461181641</v>
+      </c>
+      <c r="G8">
+        <v>1216.9153182506559</v>
+      </c>
+      <c r="H8">
+        <v>184.3784502744675</v>
+      </c>
+      <c r="I8">
+        <v>0.8</v>
+      </c>
+      <c r="J8">
+        <v>0.53851010902491803</v>
+      </c>
+      <c r="K8">
+        <v>0.35459263430720001</v>
+      </c>
+      <c r="L8">
+        <v>0.44979693676853999</v>
+      </c>
+      <c r="M8">
+        <v>0.45135498260153001</v>
+      </c>
+      <c r="N8">
+        <v>0.85172260126704435</v>
+      </c>
+      <c r="O8">
+        <v>0.53593384717550319</v>
+      </c>
+      <c r="P8">
+        <v>0.29383740866758185</v>
+      </c>
+      <c r="Q8">
+        <v>0.43784433746612822</v>
+      </c>
+      <c r="R8">
+        <v>0.43471933746612823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>5.4245129426320391</v>
+      </c>
+      <c r="C10">
+        <v>9.0623118877410889</v>
+      </c>
+      <c r="D10">
+        <v>0.9103553295135498</v>
+      </c>
+      <c r="E10">
+        <v>2.2583692073822021</v>
+      </c>
+      <c r="F10">
+        <v>7.3902938365936279</v>
+      </c>
+      <c r="G10">
+        <v>194.3341472148895</v>
+      </c>
+      <c r="H10">
+        <v>69.191985630989095</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <v>0.54164933435267204</v>
+      </c>
+      <c r="K10">
+        <v>0.382834659485425</v>
+      </c>
+      <c r="L10">
+        <v>0.456583368129028</v>
+      </c>
+      <c r="M10">
+        <v>0.45833871768774098</v>
+      </c>
+      <c r="N10">
+        <v>0.89206033302287546</v>
+      </c>
+      <c r="O10">
+        <v>0.70013244028471866</v>
+      </c>
+      <c r="P10">
+        <v>0.47846117596915966</v>
+      </c>
+      <c r="Q10">
+        <v>0.60036854346979518</v>
+      </c>
+      <c r="R10">
+        <v>0.59870187680312847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>5.4245129426320391</v>
+      </c>
+      <c r="C11">
+        <v>3.9674563407897949</v>
+      </c>
+      <c r="D11">
+        <v>0.81729841232299805</v>
+      </c>
+      <c r="E11">
+        <v>1.963096618652344</v>
+      </c>
+      <c r="F11">
+        <v>48.18139910697937</v>
+      </c>
+      <c r="G11">
+        <v>690.03253126144409</v>
+      </c>
+      <c r="H11">
+        <v>135.21392229795461</v>
+      </c>
+      <c r="I11">
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <v>0.56348745808580003</v>
+      </c>
+      <c r="K11">
+        <v>0.39892027189610901</v>
+      </c>
+      <c r="L11">
+        <v>0.48888946640922598</v>
+      </c>
+      <c r="M11">
+        <v>0.49211260067148199</v>
+      </c>
+      <c r="N11">
+        <v>0.86192812467197777</v>
+      </c>
+      <c r="O11">
+        <v>0.67197050332352004</v>
+      </c>
+      <c r="P11">
+        <v>0.46227424572272779</v>
+      </c>
+      <c r="Q11">
+        <v>0.58469523111676525</v>
+      </c>
+      <c r="R11">
+        <v>0.58636189778343195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>5.4245129426320391</v>
+      </c>
+      <c r="C12">
+        <v>3.2437705993652339</v>
+      </c>
+      <c r="D12">
+        <v>2.331371545791626</v>
+      </c>
+      <c r="E12">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="F12">
+        <v>13.65658378601074</v>
+      </c>
+      <c r="G12">
+        <v>172.88219714164731</v>
+      </c>
+      <c r="H12">
+        <v>85.169187271595007</v>
+      </c>
+      <c r="I12">
+        <v>0.8</v>
+      </c>
+      <c r="J12">
+        <v>0.483958661003352</v>
+      </c>
+      <c r="K12">
+        <v>0.35560798577911101</v>
+      </c>
+      <c r="L12">
+        <v>0.41946709825775202</v>
+      </c>
+      <c r="M12">
+        <v>0.42193220395523301</v>
+      </c>
+      <c r="N12">
+        <v>0.79183055005355263</v>
+      </c>
+      <c r="O12">
+        <v>0.5705738164987203</v>
+      </c>
+      <c r="P12">
+        <v>0.37497716047130714</v>
+      </c>
+      <c r="Q12">
+        <v>0.49291281644827861</v>
+      </c>
+      <c r="R12">
+        <v>0.49291281644827861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>8.7842366695404035</v>
+      </c>
+      <c r="C14">
+        <v>17.727718830108639</v>
+      </c>
+      <c r="D14">
+        <v>8.9037516117095947</v>
+      </c>
+      <c r="E14">
+        <v>12.08773398399353</v>
+      </c>
+      <c r="F14">
+        <v>11.4017333984375</v>
+      </c>
+      <c r="G14">
+        <v>344.90484237670898</v>
+      </c>
+      <c r="H14">
+        <v>128.43259263038641</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.55602362408698203</v>
+      </c>
+      <c r="K14">
+        <v>0.41050720660534601</v>
+      </c>
+      <c r="L14">
+        <v>0.484542603468751</v>
+      </c>
+      <c r="M14">
+        <v>0.48284553520733497</v>
+      </c>
+      <c r="N14">
+        <v>0.87391655813525926</v>
+      </c>
+      <c r="O14">
+        <v>0.76331004391771407</v>
+      </c>
+      <c r="P14">
+        <v>0.55485100172527291</v>
+      </c>
+      <c r="Q14">
+        <v>0.67773686695204671</v>
+      </c>
+      <c r="R14">
+        <v>0.67394898816416804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>8.7842366695404035</v>
+      </c>
+      <c r="C15">
+        <v>3.8833925724029541</v>
+      </c>
+      <c r="D15">
+        <v>1.0706660747528081</v>
+      </c>
+      <c r="E15">
+        <v>3.5121240615844731</v>
+      </c>
+      <c r="F15">
+        <v>178.32608532905579</v>
+      </c>
+      <c r="G15">
+        <v>452.15553140640259</v>
+      </c>
+      <c r="H15">
+        <v>260.73148077726358</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.55107575065371905</v>
+      </c>
+      <c r="K15">
+        <v>0.38807080508195202</v>
+      </c>
+      <c r="L15">
+        <v>0.47143000000000002</v>
+      </c>
+      <c r="M15">
+        <v>0.474067574338287</v>
+      </c>
+      <c r="N15">
+        <v>0.8807868889211361</v>
+      </c>
+      <c r="O15">
+        <v>0.74285658192542026</v>
+      </c>
+      <c r="P15">
+        <v>0.4831881859070834</v>
+      </c>
+      <c r="Q15">
+        <v>0.62960498319965574</v>
+      </c>
+      <c r="R15">
+        <v>0.63127164986632245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>8.7842366695404035</v>
+      </c>
+      <c r="C16">
+        <v>4.7415986061096191</v>
+      </c>
+      <c r="D16">
+        <v>2.8902096748352051</v>
+      </c>
+      <c r="E16">
+        <v>10.125999999999999</v>
+      </c>
+      <c r="F16">
+        <v>68.560878038406372</v>
+      </c>
+      <c r="G16">
+        <v>358.84916114807129</v>
+      </c>
+      <c r="H16">
+        <v>212.7192493200302</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.49048369370274703</v>
+      </c>
+      <c r="K16">
+        <v>0.32816246312365699</v>
+      </c>
+      <c r="L16">
+        <v>0.41124687580125502</v>
+      </c>
+      <c r="M16">
+        <v>0.40937839484829303</v>
+      </c>
+      <c r="N16">
+        <v>0.83294910482818074</v>
+      </c>
+      <c r="O16">
+        <v>0.58592854519250548</v>
+      </c>
+      <c r="P16">
+        <v>0.38652706434623091</v>
+      </c>
+      <c r="Q16">
+        <v>0.51510476821709161</v>
+      </c>
+      <c r="R16">
+        <v>0.51406310155042501</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:D16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:H16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:R16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
